--- a/xlsx/Pemesanan.xlsx
+++ b/xlsx/Pemesanan.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>DAFTAR PESANAN Dearma Rental Mobil Medan</t>
   </si>
   <si>
-    <t>01-11-2023 s/d 02-11-2023</t>
+    <t>01-11-2023 s/d 10-11-2023</t>
   </si>
   <si>
     <t>No</t>
@@ -47,34 +47,52 @@
     <t>TOTAL HARGA</t>
   </si>
   <si>
-    <t>DRM/02/01/11/2023</t>
-  </si>
-  <si>
-    <t>iwan kadapol</t>
+    <t>UANG MUKA</t>
+  </si>
+  <si>
+    <t>SISA PEMBAYARAN</t>
+  </si>
+  <si>
+    <t>BOK017YTSIZ</t>
+  </si>
+  <si>
+    <t>Fanani</t>
   </si>
   <si>
     <t>All In</t>
   </si>
   <si>
-    <t>01-11-2023</t>
-  </si>
-  <si>
-    <t>02-11-2023</t>
+    <t>10-11-2023</t>
+  </si>
+  <si>
+    <t>11-11-2023</t>
+  </si>
+  <si>
+    <t>kirim invoice</t>
+  </si>
+  <si>
+    <t>05-11-2023</t>
+  </si>
+  <si>
+    <t>06-11-2023</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>DRM/01/01/11/2023</t>
-  </si>
-  <si>
-    <t>wan</t>
-  </si>
-  <si>
-    <t>Lepas Kunci</t>
-  </si>
-  <si>
-    <t>proses</t>
+    <t>BOK025UTA25X</t>
+  </si>
+  <si>
+    <t>03-11-2023</t>
+  </si>
+  <si>
+    <t>04-11-2023</t>
+  </si>
+  <si>
+    <t>BOK123</t>
+  </si>
+  <si>
+    <t>Fakhrul</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -420,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -428,17 +446,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -463,77 +481,145 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>935000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1900000</v>
+      </c>
+      <c r="I5">
+        <v>200000</v>
+      </c>
+      <c r="J5">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>1040000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7"/>
+        <v>1000000</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
       <c r="H7">
-        <v>1975000</v>
+        <v>1000000</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8">
+        <v>1230000</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8">
+        <v>1230000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9">
+        <v>5130000</v>
+      </c>
+      <c r="I9">
+        <v>200000</v>
+      </c>
+      <c r="J9">
+        <v>4930000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
